--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42995,6 +42995,41 @@
         <v>60658300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>24824600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43030,6 +43030,41 @@
         <v>24824600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>26325500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43065,6 +43065,41 @@
         <v>26325500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>18927800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43100,6 +43100,41 @@
         <v>18927800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>11685100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43135,6 +43135,41 @@
         <v>11685100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>14651900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         <v>14651900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>17013700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>17013700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>20524800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>20524800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>12062500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>12062500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>14525200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>14525200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>13257500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>13257500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>25199800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>25199800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>13025600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,76 @@
         <v>13025600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4610600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10148700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,76 @@
         <v>10148700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>8601200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>27993900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>27993900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>62908800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>62908800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>36127800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,41 @@
         <v>36127800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>60013300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         <v>60013300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>33064800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,76 @@
         <v>33064800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>16890700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>30053000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>30053000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>37397500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>37397500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>27686500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2150"/>
+  <dimension ref="A1:I2151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75650,6 +75650,41 @@
         <v>27686500</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>22509000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2151"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75685,6 +75685,41 @@
         <v>22509000</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>19170300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2152"/>
+  <dimension ref="A1:I2153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75720,6 +75720,41 @@
         <v>19170300</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>17112800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2153"/>
+  <dimension ref="A1:I2154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75755,6 +75755,41 @@
         <v>17112800</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>15726200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2154"/>
+  <dimension ref="A1:I2155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75790,6 +75790,41 @@
         <v>15726200</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>15987400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2155"/>
+  <dimension ref="A1:I2156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75825,6 +75825,41 @@
         <v>15987400</v>
       </c>
     </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>8073000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2156"/>
+  <dimension ref="A1:I2157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75860,6 +75860,41 @@
         <v>8073000</v>
       </c>
     </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>14517200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2157"/>
+  <dimension ref="A1:I2158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75895,6 +75895,41 @@
         <v>14517200</v>
       </c>
     </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>20351800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2158"/>
+  <dimension ref="A1:I2159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75930,6 +75930,41 @@
         <v>20351800</v>
       </c>
     </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2159" t="n">
+        <v>26335500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2159"/>
+  <dimension ref="A1:I2160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75965,6 +75965,41 @@
         <v>26335500</v>
       </c>
     </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2160" t="n">
+        <v>19903500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2160"/>
+  <dimension ref="A1:I2161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76000,6 +76000,41 @@
         <v>19903500</v>
       </c>
     </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2161" t="n">
+        <v>79094900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2161"/>
+  <dimension ref="A1:I2162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76035,6 +76035,41 @@
         <v>79094900</v>
       </c>
     </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2162" t="n">
+        <v>28944400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2162"/>
+  <dimension ref="A1:I2163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76070,6 +76070,41 @@
         <v>28944400</v>
       </c>
     </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>22513700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2163"/>
+  <dimension ref="A1:I2164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76105,6 +76105,41 @@
         <v>22513700</v>
       </c>
     </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>14165300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2164"/>
+  <dimension ref="A1:I2165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76140,6 +76140,41 @@
         <v>14165300</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>8032100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2165"/>
+  <dimension ref="A1:I2166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76175,6 +76175,41 @@
         <v>8032100</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>15762600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2166"/>
+  <dimension ref="A1:I2167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76210,6 +76210,41 @@
         <v>15762600</v>
       </c>
     </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>30354500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2167"/>
+  <dimension ref="A1:I2168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76245,6 +76245,41 @@
         <v>30354500</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>14072300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2168"/>
+  <dimension ref="A1:I2169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76280,6 +76280,41 @@
         <v>14072300</v>
       </c>
     </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>56771700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2169"/>
+  <dimension ref="A1:I2170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76315,6 +76315,41 @@
         <v>56771700</v>
       </c>
     </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2170" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2170" t="n">
+        <v>14995100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2170"/>
+  <dimension ref="A1:I2171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76350,6 +76350,41 @@
         <v>14995100</v>
       </c>
     </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2171" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2171" t="n">
+        <v>56497500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2171"/>
+  <dimension ref="A1:I2172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76385,6 +76385,41 @@
         <v>56497500</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2172" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2172" t="n">
+        <v>26059100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2172"/>
+  <dimension ref="A1:I2173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76420,6 +76420,41 @@
         <v>26059100</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2173" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2173" t="n">
+        <v>55029900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2173"/>
+  <dimension ref="A1:I2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76455,6 +76455,41 @@
         <v>55029900</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2174" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2174" t="n">
+        <v>75289900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2174"/>
+  <dimension ref="A1:I2175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76490,6 +76490,41 @@
         <v>75289900</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2175" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2175" t="n">
+        <v>27929200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2175"/>
+  <dimension ref="A1:I2177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76525,6 +76525,76 @@
         <v>27929200</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2176" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2176" t="n">
+        <v>44640400</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2177" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2177" t="n">
+        <v>31676100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2177"/>
+  <dimension ref="A1:I2178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76595,6 +76595,41 @@
         <v>31676100</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>0018</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>LAMBO</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H2178" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I2178" t="n">
+        <v>129436300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2178"/>
+  <dimension ref="A1:I2181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76630,6 +76630,111 @@
         <v>129436300</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2179" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2179" t="n">
+        <v>65595900</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2180" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2180" t="n">
+        <v>136990200</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2181" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2181" t="n">
+        <v>162140100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2181"/>
+  <dimension ref="A1:I2182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76735,6 +76735,41 @@
         <v>162140100</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H2182" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2182" t="n">
+        <v>60402000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2182"/>
+  <dimension ref="A1:I2183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76770,6 +76770,41 @@
         <v>60402000</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H2183" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2183" t="n">
+        <v>23240000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0163.xlsx
+++ b/data/0163.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2183"/>
+  <dimension ref="A1:I2186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76805,6 +76805,111 @@
         <v>23240000</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2184" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2184" t="n">
+        <v>55514800</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2185" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I2185" t="n">
+        <v>149146900</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>0163</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>CAREPLS</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H2186" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2186" t="n">
+        <v>89836700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
